--- a/biology/Médecine/Patrice_Queneau/Patrice_Queneau.xlsx
+++ b/biology/Médecine/Patrice_Queneau/Patrice_Queneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrice Queneau, né le 5 juin 1938, est un médecin français, doyen honoraire de la faculté de médecine de Saint-Étienne[1].
-Il est élu membre de l'Académie nationale de médecine en 2003[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrice Queneau, né le 5 juin 1938, est un médecin français, doyen honoraire de la faculté de médecine de Saint-Étienne.
+Il est élu membre de l'Académie nationale de médecine en 2003.
 Il est l'auteur d'ouvrages et publications consacrés aux accidents médicamenteux et à leur prévention, à la prise en charge des malades douloureux et à l'humanisme médical ainsi qu'à la formation pratique des médecins. Il s'est consacré entre autres aux déserts médicaux et de la place des médecins généralistes dans la société de demain.
-Rapporteur, avec le professeur Rissane Ourabah, du Rapport de l'Académie nationale de médecine sur les déserts médicaux[3].
+Rapporteur, avec le professeur Rissane Ourabah, du Rapport de l'Académie nationale de médecine sur les déserts médicaux.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Patrice Queneau, La iatrogénie médicamenteuse et sa prévention : rapport au Secrétaire d'État à la santé, Bernard Kouchner, INSP, 1er mars 1998
 Patrice Queneau et Gérard Ostermann, Soulager la douleur : écouter, croire, prendre soin, Odile Jacob, 1998, 316 p. (ISBN 978-2-7381-0603-2, lire en ligne)
